--- a/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA268E7-0552-4E62-A15A-55D88995D95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A602727-57C7-410C-ACC2-B7FB392B8A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>S1_GRD_4TO49, S1_GRD_5TO59, S2_GRD_3TO39, S2_GRD_4TO49, S2_GRD_5TO59, S2_GRD_6TO7, S2_BEST_GRD</t>
+    <t>Ones, S1_GRD_4TO49, S1_GRD_5TO59, S2_GRD_3TO39, S2_GRD_4TO49, S2_GRD_5TO59, S2_GRD_6TO7, S2_BEST_GRD</t>
   </si>
   <si>
     <t>y</t>
@@ -444,7 +444,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>

--- a/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A602727-57C7-410C-ACC2-B7FB392B8A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2D7B4C-BFB1-49FF-B6C7-703433E2049F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2D7B4C-BFB1-49FF-B6C7-703433E2049F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD248DE1-ADF8-40FC-A189-DE6C884EA9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD248DE1-ADF8-40FC-A189-DE6C884EA9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F322757-9827-4FB6-8516-803E22D7B9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F322757-9827-4FB6-8516-803E22D7B9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70AE1BF-DF60-4CFF-B882-2F821CCA9513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70AE1BF-DF60-4CFF-B882-2F821CCA9513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0C4897-1308-4389-AEEF-226B24033F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/evaluateRegModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0C4897-1308-4389-AEEF-226B24033F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A7D0D-A3B5-4184-92D3-827712BD905B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
